--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il1b</t>
   </si>
   <si>
     <t>Il1r1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H2">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I2">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J2">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N2">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q2">
-        <v>1674.781600891677</v>
+        <v>2.451599093888</v>
       </c>
       <c r="R2">
-        <v>1674.781600891677</v>
+        <v>22.064391844992</v>
       </c>
       <c r="S2">
-        <v>0.003320401573145111</v>
+        <v>4.308712277857236E-06</v>
       </c>
       <c r="T2">
-        <v>0.003320401573145111</v>
+        <v>4.308712277857236E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H3">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I3">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J3">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N3">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q3">
-        <v>14250.20520607872</v>
+        <v>13.14993539106667</v>
       </c>
       <c r="R3">
-        <v>14250.20520607872</v>
+        <v>118.3494185196</v>
       </c>
       <c r="S3">
-        <v>0.02825228301929786</v>
+        <v>2.311115557750601E-05</v>
       </c>
       <c r="T3">
-        <v>0.02825228301929786</v>
+        <v>2.311115557750601E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H4">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I4">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J4">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N4">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q4">
-        <v>29.39644724066036</v>
+        <v>0.04011313495111112</v>
       </c>
       <c r="R4">
-        <v>29.39644724066036</v>
+        <v>0.36101821456</v>
       </c>
       <c r="S4">
-        <v>5.828103772503712E-05</v>
+        <v>7.049927433000291E-08</v>
       </c>
       <c r="T4">
-        <v>5.828103772503712E-05</v>
+        <v>7.04992743300029E-08</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H5">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I5">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J5">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N5">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q5">
-        <v>31.34482925705771</v>
+        <v>0.03110828706577777</v>
       </c>
       <c r="R5">
-        <v>31.34482925705771</v>
+        <v>0.279974583592</v>
       </c>
       <c r="S5">
-        <v>6.214387614461911E-05</v>
+        <v>5.467315547537379E-08</v>
       </c>
       <c r="T5">
-        <v>6.214387614461911E-05</v>
+        <v>5.467315547537379E-08</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H6">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I6">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J6">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N6">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q6">
-        <v>68.99545046359501</v>
+        <v>0.08010864416000001</v>
       </c>
       <c r="R6">
-        <v>68.99545046359501</v>
+        <v>0.72097779744</v>
       </c>
       <c r="S6">
-        <v>0.0001367895384909915</v>
+        <v>1.407918201288326E-07</v>
       </c>
       <c r="T6">
-        <v>0.0001367895384909915</v>
+        <v>1.407918201288326E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>150.964201728674</v>
+        <v>0.1378426666666667</v>
       </c>
       <c r="H7">
-        <v>150.964201728674</v>
+        <v>0.413528</v>
       </c>
       <c r="I7">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="J7">
-        <v>0.03446273331981336</v>
+        <v>2.994668872698656E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N7">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q7">
-        <v>1327.978651030048</v>
+        <v>1.286396883270222</v>
       </c>
       <c r="R7">
-        <v>1327.978651030048</v>
+        <v>11.577571949432</v>
       </c>
       <c r="S7">
-        <v>0.002632834275009741</v>
+        <v>2.260856621689102E-06</v>
       </c>
       <c r="T7">
-        <v>0.002632834275009741</v>
+        <v>2.260856621689102E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H8">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I8">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J8">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N8">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O8">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P8">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q8">
-        <v>4072.079973818316</v>
+        <v>3630.725322944832</v>
       </c>
       <c r="R8">
-        <v>4072.079973818316</v>
+        <v>32676.52790650348</v>
       </c>
       <c r="S8">
-        <v>0.008073256085354832</v>
+        <v>0.006381039549043924</v>
       </c>
       <c r="T8">
-        <v>0.008073256085354832</v>
+        <v>0.006381039549043924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H9">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I9">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J9">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N9">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O9">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P9">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q9">
-        <v>34648.08498706921</v>
+        <v>19474.5558270366</v>
       </c>
       <c r="R9">
-        <v>34648.08498706921</v>
+        <v>175271.0024433294</v>
       </c>
       <c r="S9">
-        <v>0.06869287066222737</v>
+        <v>0.03422674531368633</v>
       </c>
       <c r="T9">
-        <v>0.06869287066222737</v>
+        <v>0.03422674531368633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H10">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I10">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J10">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N10">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O10">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P10">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q10">
-        <v>71.47480247356867</v>
+        <v>59.40603225576</v>
       </c>
       <c r="R10">
-        <v>71.47480247356867</v>
+        <v>534.65429030184</v>
       </c>
       <c r="S10">
-        <v>0.0001417050715431304</v>
+        <v>0.0001044067527995545</v>
       </c>
       <c r="T10">
-        <v>0.0001417050715431304</v>
+        <v>0.0001044067527995544</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H11">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I11">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J11">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N11">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O11">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P11">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q11">
-        <v>76.21211710975481</v>
+        <v>46.07019389293199</v>
       </c>
       <c r="R11">
-        <v>76.21211710975481</v>
+        <v>414.6317450363879</v>
       </c>
       <c r="S11">
-        <v>0.000151097213755644</v>
+        <v>8.09688707116189E-05</v>
       </c>
       <c r="T11">
-        <v>0.000151097213755644</v>
+        <v>8.09688707116189E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H12">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I12">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J12">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N12">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O12">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P12">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q12">
-        <v>167.7561969678879</v>
+        <v>118.63786524624</v>
       </c>
       <c r="R12">
-        <v>167.7561969678879</v>
+        <v>1067.74078721616</v>
       </c>
       <c r="S12">
-        <v>0.0003325913898388017</v>
+        <v>0.0002085073484810968</v>
       </c>
       <c r="T12">
-        <v>0.0003325913898388017</v>
+        <v>0.0002085073484810968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>367.055801362701</v>
+        <v>204.139764</v>
       </c>
       <c r="H13">
-        <v>367.055801362701</v>
+        <v>612.4192919999999</v>
       </c>
       <c r="I13">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="J13">
-        <v>0.0837930188150723</v>
+        <v>0.04434991078699747</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N13">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O13">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P13">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q13">
-        <v>3228.859970541006</v>
+        <v>1905.105019450572</v>
       </c>
       <c r="R13">
-        <v>3228.859970541006</v>
+        <v>17145.94517505515</v>
       </c>
       <c r="S13">
-        <v>0.006401498392352508</v>
+        <v>0.003348242952274941</v>
       </c>
       <c r="T13">
-        <v>0.006401498392352508</v>
+        <v>0.003348242952274941</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H14">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I14">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J14">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N14">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O14">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P14">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q14">
-        <v>42850.02670312169</v>
+        <v>6688.819280366271</v>
       </c>
       <c r="R14">
-        <v>42850.02670312169</v>
+        <v>60199.37352329645</v>
       </c>
       <c r="S14">
-        <v>0.08495394026218331</v>
+        <v>0.01175567319694848</v>
       </c>
       <c r="T14">
-        <v>0.08495394026218331</v>
+        <v>0.01175567319694849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H15">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I15">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J15">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N15">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O15">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P15">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q15">
-        <v>364597.7919033343</v>
+        <v>35877.62028409193</v>
       </c>
       <c r="R15">
-        <v>364597.7919033343</v>
+        <v>322898.5825568274</v>
       </c>
       <c r="S15">
-        <v>0.7228471349079297</v>
+        <v>0.06305531088005406</v>
       </c>
       <c r="T15">
-        <v>0.7228471349079297</v>
+        <v>0.06305531088005407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H16">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I16">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J16">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N16">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O16">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P16">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q16">
-        <v>752.12108167928</v>
+        <v>109.4426536238489</v>
       </c>
       <c r="R16">
-        <v>752.12108167928</v>
+        <v>984.98388261464</v>
       </c>
       <c r="S16">
-        <v>0.001491146082255658</v>
+        <v>0.0001923466632721383</v>
       </c>
       <c r="T16">
-        <v>0.001491146082255658</v>
+        <v>0.0001923466632721383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H17">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I17">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J17">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N17">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O17">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P17">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q17">
-        <v>801.9712958123098</v>
+        <v>84.8742809635942</v>
       </c>
       <c r="R17">
-        <v>801.9712958123098</v>
+        <v>763.8685286723479</v>
       </c>
       <c r="S17">
-        <v>0.00158997850872894</v>
+        <v>0.0001491674790441286</v>
       </c>
       <c r="T17">
-        <v>0.00158997850872894</v>
+        <v>0.0001491674790441287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3862.48575446795</v>
+        <v>376.0829773333333</v>
       </c>
       <c r="H18">
-        <v>3862.48575446795</v>
+        <v>1128.248932</v>
       </c>
       <c r="I18">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067357</v>
       </c>
       <c r="J18">
-        <v>0.8817442478651144</v>
+        <v>0.08170503466067358</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N18">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O18">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P18">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q18">
-        <v>1765.279062765495</v>
+        <v>218.56438310704</v>
       </c>
       <c r="R18">
-        <v>1765.279062765495</v>
+        <v>1967.07944796336</v>
       </c>
       <c r="S18">
-        <v>0.003499820737179085</v>
+        <v>0.0003841292988496341</v>
       </c>
       <c r="T18">
-        <v>0.003499820737179085</v>
+        <v>0.0003841292988496341</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>376.0829773333333</v>
+      </c>
+      <c r="H19">
+        <v>1128.248932</v>
+      </c>
+      <c r="I19">
+        <v>0.08170503466067357</v>
+      </c>
+      <c r="J19">
+        <v>0.08170503466067358</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>9.332356333333333</v>
+      </c>
+      <c r="N19">
+        <v>27.997069</v>
+      </c>
+      <c r="O19">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="P19">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="Q19">
+        <v>3509.740355375589</v>
+      </c>
+      <c r="R19">
+        <v>31587.66319838031</v>
+      </c>
+      <c r="S19">
+        <v>0.00616840714250512</v>
+      </c>
+      <c r="T19">
+        <v>0.00616840714250512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H20">
+        <v>12067.582276</v>
+      </c>
+      <c r="I20">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J20">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.785488</v>
+      </c>
+      <c r="N20">
+        <v>53.356464</v>
+      </c>
+      <c r="O20">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="P20">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="Q20">
+        <v>71542.61325293691</v>
+      </c>
+      <c r="R20">
+        <v>643883.5192764321</v>
+      </c>
+      <c r="S20">
+        <v>0.1257369269230948</v>
+      </c>
+      <c r="T20">
+        <v>0.1257369269230948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H21">
+        <v>12067.582276</v>
+      </c>
+      <c r="I21">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J21">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>95.39815</v>
+      </c>
+      <c r="N21">
+        <v>286.19445</v>
+      </c>
+      <c r="O21">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="P21">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="Q21">
+        <v>383741.6747010632</v>
+      </c>
+      <c r="R21">
+        <v>3453675.072309569</v>
+      </c>
+      <c r="S21">
+        <v>0.674430199224696</v>
+      </c>
+      <c r="T21">
+        <v>0.674430199224696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H22">
+        <v>12067.582276</v>
+      </c>
+      <c r="I22">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J22">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2910066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.87302</v>
+      </c>
+      <c r="O22">
+        <v>0.002354159251886579</v>
+      </c>
+      <c r="P22">
+        <v>0.002354159251886578</v>
+      </c>
+      <c r="Q22">
+        <v>1170.582297621502</v>
+      </c>
+      <c r="R22">
+        <v>10535.24067859352</v>
+      </c>
+      <c r="S22">
+        <v>0.002057311218044739</v>
+      </c>
+      <c r="T22">
+        <v>0.002057311218044739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H23">
+        <v>12067.582276</v>
+      </c>
+      <c r="I23">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J23">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.2256796666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.6770389999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="P23">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="Q23">
+        <v>907.8026485067516</v>
+      </c>
+      <c r="R23">
+        <v>8170.223836560764</v>
+      </c>
+      <c r="S23">
+        <v>0.001595473104572395</v>
+      </c>
+      <c r="T23">
+        <v>0.001595473104572395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H24">
+        <v>12067.582276</v>
+      </c>
+      <c r="I24">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J24">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.58116</v>
+      </c>
+      <c r="N24">
+        <v>1.74348</v>
+      </c>
+      <c r="O24">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="P24">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="Q24">
+        <v>2337.73203850672</v>
+      </c>
+      <c r="R24">
+        <v>21039.58834656048</v>
+      </c>
+      <c r="S24">
+        <v>0.004108589680003483</v>
+      </c>
+      <c r="T24">
+        <v>0.004108589680003483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4022.527425333334</v>
+      </c>
+      <c r="H25">
+        <v>12067.582276</v>
+      </c>
+      <c r="I25">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="J25">
+        <v>0.8739048628065621</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.332356333333333</v>
+      </c>
+      <c r="N25">
+        <v>27.997069</v>
+      </c>
+      <c r="O25">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="P25">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="Q25">
+        <v>37539.65929381656</v>
+      </c>
+      <c r="R25">
+        <v>337856.933644349</v>
+      </c>
+      <c r="S25">
+        <v>0.0659763626561506</v>
+      </c>
+      <c r="T25">
+        <v>0.0659763626561506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.141472</v>
+      </c>
+      <c r="I26">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J26">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.785488</v>
+      </c>
+      <c r="N26">
+        <v>53.356464</v>
+      </c>
+      <c r="O26">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="P26">
+        <v>0.1438794224342548</v>
+      </c>
+      <c r="Q26">
+        <v>0.8387161861119999</v>
+      </c>
+      <c r="R26">
+        <v>7.548445675008</v>
+      </c>
+      <c r="S26">
+        <v>1.474052889702799E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.474052889702799E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3862.48575446795</v>
-      </c>
-      <c r="H19">
-        <v>3862.48575446795</v>
-      </c>
-      <c r="I19">
-        <v>0.8817442478651144</v>
-      </c>
-      <c r="J19">
-        <v>0.8817442478651144</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.79664606458693</v>
-      </c>
-      <c r="N19">
-        <v>8.79664606458693</v>
-      </c>
-      <c r="O19">
-        <v>0.07639656003419985</v>
-      </c>
-      <c r="P19">
-        <v>0.07639656003419985</v>
-      </c>
-      <c r="Q19">
-        <v>33976.92011156357</v>
-      </c>
-      <c r="R19">
-        <v>33976.92011156357</v>
-      </c>
-      <c r="S19">
-        <v>0.06736222736683761</v>
-      </c>
-      <c r="T19">
-        <v>0.06736222736683761</v>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.141472</v>
+      </c>
+      <c r="I27">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J27">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>95.39815</v>
+      </c>
+      <c r="N27">
+        <v>286.19445</v>
+      </c>
+      <c r="O27">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="P27">
+        <v>0.7717432731278673</v>
+      </c>
+      <c r="Q27">
+        <v>4.498722358933333</v>
+      </c>
+      <c r="R27">
+        <v>40.4885012304</v>
+      </c>
+      <c r="S27">
+        <v>7.906553853332617E-06</v>
+      </c>
+      <c r="T27">
+        <v>7.906553853332617E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.141472</v>
+      </c>
+      <c r="I28">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J28">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.2910066666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.87302</v>
+      </c>
+      <c r="O28">
+        <v>0.002354159251886579</v>
+      </c>
+      <c r="P28">
+        <v>0.002354159251886578</v>
+      </c>
+      <c r="Q28">
+        <v>0.01372309838222222</v>
+      </c>
+      <c r="R28">
+        <v>0.12350788544</v>
+      </c>
+      <c r="S28">
+        <v>2.41184958165207E-08</v>
+      </c>
+      <c r="T28">
+        <v>2.411849581652069E-08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.141472</v>
+      </c>
+      <c r="I29">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J29">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2256796666666666</v>
+      </c>
+      <c r="N29">
+        <v>0.6770389999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="P29">
+        <v>0.001825682831708365</v>
+      </c>
+      <c r="Q29">
+        <v>0.01064245126755555</v>
+      </c>
+      <c r="R29">
+        <v>0.09578206140799998</v>
+      </c>
+      <c r="S29">
+        <v>1.870422474756747E-08</v>
+      </c>
+      <c r="T29">
+        <v>1.870422474756747E-08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.141472</v>
+      </c>
+      <c r="I30">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J30">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.58116</v>
+      </c>
+      <c r="N30">
+        <v>1.74348</v>
+      </c>
+      <c r="O30">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="P30">
+        <v>0.004701415285422111</v>
+      </c>
+      <c r="Q30">
+        <v>0.02740595584</v>
+      </c>
+      <c r="R30">
+        <v>0.24665360256</v>
+      </c>
+      <c r="S30">
+        <v>4.816626776727624E-08</v>
+      </c>
+      <c r="T30">
+        <v>4.816626776727624E-08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.04715733333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.141472</v>
+      </c>
+      <c r="I31">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="J31">
+        <v>1.024505703987213E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>9.332356333333333</v>
+      </c>
+      <c r="N31">
+        <v>27.997069</v>
+      </c>
+      <c r="O31">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="P31">
+        <v>0.07549604706886086</v>
+      </c>
+      <c r="Q31">
+        <v>0.4400890383964444</v>
+      </c>
+      <c r="R31">
+        <v>3.960801345568</v>
+      </c>
+      <c r="S31">
+        <v>7.734613085053506E-07</v>
+      </c>
+      <c r="T31">
+        <v>7.734613085053506E-07</v>
       </c>
     </row>
   </sheetData>
